--- a/data/teaching-experience.xlsx
+++ b/data/teaching-experience.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CE7269-0CCA-4C86-97E8-41C939AF3569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{E4CE7269-0CCA-4C86-97E8-41C939AF3569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F473142C-C6B7-4E1B-8D40-F8A301946B4B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Accessibility Instructor</t>
-  </si>
-  <si>
-    <t>Mar. 2015 - Present</t>
-  </si>
-  <si>
-    <t>IT Accessibility Team, Teaching and Learning with Technology (TLT)</t>
-  </si>
-  <si>
-    <t>University Park, PA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>what</t>
   </si>
@@ -49,22 +37,76 @@
     <t>why</t>
   </si>
   <si>
-    <t>Assistant English Teacher</t>
-  </si>
-  <si>
-    <t>Mar. 2013 - May. 2013</t>
-  </si>
-  <si>
-    <t>Gunpo High School</t>
-  </si>
-  <si>
-    <t>Gyeonggi, South Korea</t>
-  </si>
-  <si>
-    <t>Taught English to 10-grade high school students.</t>
-  </si>
-  <si>
-    <t>Teaching over 100 staff members of the Penn State Accessibility team HTML5/CSS3/JavaScript coding and accessibility evaluation practice.</t>
+    <t>Teaching assistant – AB204 Arctic Ecology and Population Biology</t>
+  </si>
+  <si>
+    <t>Sep 2016</t>
+  </si>
+  <si>
+    <t>Longyearbyen, Svalbard, Norway</t>
+  </si>
+  <si>
+    <t>Teaching assistant – AB202 Marine Arctic Biology</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Responsible for seabird at sea census techniques and fisheries data sampling</t>
+  </si>
+  <si>
+    <t>Teaching assistant – Math preparation course for BSc students</t>
+  </si>
+  <si>
+    <t>Oct 2010</t>
+  </si>
+  <si>
+    <t>University of Applied Sciences Bremen</t>
+  </si>
+  <si>
+    <t>Bremen, Germany</t>
+  </si>
+  <si>
+    <t>Guest lecturer –  AB338 Life History Adaptations to Seasonality</t>
+  </si>
+  <si>
+    <t>Jun 2018</t>
+  </si>
+  <si>
+    <t>Guest lecturer –  SDG214 Life below water</t>
+  </si>
+  <si>
+    <t>May 2019</t>
+  </si>
+  <si>
+    <t>University of Bergen</t>
+  </si>
+  <si>
+    <t>Bergen Norway</t>
+  </si>
+  <si>
+    <t>Guest lecturer – BIO300A Academic writing</t>
+  </si>
+  <si>
+    <t>Nov 2020</t>
+  </si>
+  <si>
+    <t>Guest lecturer –  BIO241 Behavioural Ecology</t>
+  </si>
+  <si>
+    <t>Lecture on "How to design better scientific figures  and posters"</t>
+  </si>
+  <si>
+    <t>Lecture on "Visual storytelling"</t>
+  </si>
+  <si>
+    <t>Lecture on "Climate-driven range shifts and life history adaptations to seasonality"</t>
+  </si>
+  <si>
+    <t>Supervised the integrated Teach2Learn module as part of bioCEED a Centre of Excellence in Biology Education</t>
+  </si>
+  <si>
+    <t>University Centre in Svalbard</t>
   </si>
 </sst>
 </file>
@@ -548,10 +590,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -873,61 +927,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="2"/>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/teaching-experience.xlsx
+++ b/data/teaching-experience.xlsx
@@ -3,24 +3,33 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{E4CE7269-0CCA-4C86-97E8-41C939AF3569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F473142C-C6B7-4E1B-8D40-F8A301946B4B}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{E4CE7269-0CCA-4C86-97E8-41C939AF3569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D6DC736-613F-49CD-9A8A-FEE3DD0BA9C4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>what</t>
   </si>
@@ -94,25 +103,82 @@
     <t>Guest lecturer –  BIO241 Behavioural Ecology</t>
   </si>
   <si>
-    <t>Lecture on "How to design better scientific figures  and posters"</t>
-  </si>
-  <si>
-    <t>Lecture on "Visual storytelling"</t>
-  </si>
-  <si>
-    <t>Lecture on "Climate-driven range shifts and life history adaptations to seasonality"</t>
-  </si>
-  <si>
     <t>Supervised the integrated Teach2Learn module as part of bioCEED a Centre of Excellence in Biology Education</t>
   </si>
   <si>
     <t>University Centre in Svalbard</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+bioCEED – Centre for Excellence in Biology Education</t>
+  </si>
+  <si>
+    <t>Title: "Climate-driven range shifts and life history adaptations to seasonality"</t>
+  </si>
+  <si>
+    <t>Title: "How to design better scientific figures  and posters"</t>
+  </si>
+  <si>
+    <t>Title: "Visual storytelling"</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Oct 2020</t>
+  </si>
+  <si>
+    <t>Nansen Legacy</t>
+  </si>
+  <si>
+    <t>DEEP: Norwegian Research School for Dynamics and Evolution of Earth and Planets</t>
+  </si>
+  <si>
+    <t>Dec 2020</t>
+  </si>
+  <si>
+    <t>webinar</t>
+  </si>
+  <si>
+    <t>workshop</t>
+  </si>
+  <si>
+    <t>Jan 2021</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>Creating good scientific posters</t>
+  </si>
+  <si>
+    <t>Visual storytelling</t>
+  </si>
+  <si>
+    <t>Introduction to data wrangling with tidyverse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$]d\ mmmm\ yyyy;@" x16r2:formatCode16="[$-en-150,1]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,21 +656,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -927,156 +988,367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" t="str">
+        <f>RIGHT(B2, SEARCH(" ",B2))</f>
+        <v>2016</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f>LEFT(B2, SEARCH(" ",B2))</f>
+        <v xml:space="preserve">Sep </v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H12" si="0">RIGHT(B3, SEARCH(" ",B3))</f>
+        <v>2015</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f t="shared" ref="I3:I12" si="1">LEFT(B3, SEARCH(" ",B3))</f>
+        <v xml:space="preserve">May </v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Oct </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jun </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">May </v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">May </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Nov </v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Nov </v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44107</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Oct </v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44166</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Dec </v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44216</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Jan </v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/teaching-experience.xlsx
+++ b/data/teaching-experience.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{E4CE7269-0CCA-4C86-97E8-41C939AF3569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D6DC736-613F-49CD-9A8A-FEE3DD0BA9C4}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{E4CE7269-0CCA-4C86-97E8-41C939AF3569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE1FB5E3-C152-4FA8-A2D2-4C3646CBB6F2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,15 +119,6 @@
 bioCEED – Centre for Excellence in Biology Education</t>
   </si>
   <si>
-    <t>Title: "Climate-driven range shifts and life history adaptations to seasonality"</t>
-  </si>
-  <si>
-    <t>Title: "How to design better scientific figures  and posters"</t>
-  </si>
-  <si>
-    <t>Title: "Visual storytelling"</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -161,13 +152,22 @@
     <t>month</t>
   </si>
   <si>
-    <t>Creating good scientific posters</t>
-  </si>
-  <si>
-    <t>Visual storytelling</t>
-  </si>
-  <si>
-    <t>Introduction to data wrangling with tidyverse</t>
+    <t>"Creating good scientific posters"</t>
+  </si>
+  <si>
+    <t>"Visual storytelling"</t>
+  </si>
+  <si>
+    <t>"Introduction to data wrangling with tidyverse"</t>
+  </si>
+  <si>
+    <t>Lecture title: "Climate-driven range shifts and life history adaptations to seasonality"</t>
+  </si>
+  <si>
+    <t>Lecture title: "How to design better scientific figures  and posters"</t>
+  </si>
+  <si>
+    <t>Lecture title: "Visual storytelling"</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,13 +1027,13 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
@@ -1164,7 +1164,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>27</v>
@@ -1193,7 +1193,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>27</v>
@@ -1222,7 +1222,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>27</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -1248,10 +1248,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" t="str">
@@ -1265,19 +1265,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G10" s="3">
         <v>44107</v>
@@ -1293,19 +1293,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G11" s="3">
         <v>44166</v>
@@ -1321,19 +1321,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3">
         <v>44216</v>
